--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col2a1-Itga10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col2a1-Itga10.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05716333333333334</v>
+        <v>0.1581976666666667</v>
       </c>
       <c r="H2">
-        <v>0.17149</v>
+        <v>0.474593</v>
       </c>
       <c r="I2">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254827</v>
       </c>
       <c r="J2">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254826</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5139126666666667</v>
+        <v>0.949891</v>
       </c>
       <c r="N2">
-        <v>1.541738</v>
+        <v>2.849673</v>
       </c>
       <c r="O2">
-        <v>0.1093018029354861</v>
+        <v>0.1664393778377885</v>
       </c>
       <c r="P2">
-        <v>0.1093018029354861</v>
+        <v>0.1664393778377885</v>
       </c>
       <c r="Q2">
-        <v>0.02937696106888889</v>
+        <v>0.1502705397876667</v>
       </c>
       <c r="R2">
-        <v>0.26439264962</v>
+        <v>1.352434858089</v>
       </c>
       <c r="S2">
-        <v>0.006855463140291622</v>
+        <v>0.02331259857964866</v>
       </c>
       <c r="T2">
-        <v>0.006855463140291623</v>
+        <v>0.02331259857964866</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05716333333333334</v>
+        <v>0.1581976666666667</v>
       </c>
       <c r="H3">
-        <v>0.17149</v>
+        <v>0.474593</v>
       </c>
       <c r="I3">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254827</v>
       </c>
       <c r="J3">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254826</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>8.504659</v>
       </c>
       <c r="O3">
-        <v>0.6029393853245545</v>
+        <v>0.4967272219242518</v>
       </c>
       <c r="P3">
-        <v>0.6029393853245546</v>
+        <v>0.4967272219242519</v>
       </c>
       <c r="Q3">
-        <v>0.1620515524344445</v>
+        <v>0.4484724031985556</v>
       </c>
       <c r="R3">
-        <v>1.45846397191</v>
+        <v>4.036251628787</v>
       </c>
       <c r="S3">
-        <v>0.03781665645865212</v>
+        <v>0.06957489554899673</v>
       </c>
       <c r="T3">
-        <v>0.03781665645865213</v>
+        <v>0.06957489554899673</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05716333333333334</v>
+        <v>0.1581976666666667</v>
       </c>
       <c r="H4">
-        <v>0.17149</v>
+        <v>0.474593</v>
       </c>
       <c r="I4">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254827</v>
       </c>
       <c r="J4">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254826</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.166040333333333</v>
+        <v>1.722217666666667</v>
       </c>
       <c r="N4">
-        <v>3.498121</v>
+        <v>5.166653</v>
       </c>
       <c r="O4">
-        <v>0.2479999404480434</v>
+        <v>0.3017660309880268</v>
       </c>
       <c r="P4">
-        <v>0.2479999404480434</v>
+        <v>0.3017660309880269</v>
       </c>
       <c r="Q4">
-        <v>0.06665475225444445</v>
+        <v>0.2724508163587778</v>
       </c>
       <c r="R4">
-        <v>0.5998927702900001</v>
+        <v>2.452057347229</v>
       </c>
       <c r="S4">
-        <v>0.01555467892455143</v>
+        <v>0.04226734344233092</v>
       </c>
       <c r="T4">
-        <v>0.01555467892455143</v>
+        <v>0.04226734344233092</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05716333333333334</v>
+        <v>0.1581976666666667</v>
       </c>
       <c r="H5">
-        <v>0.17149</v>
+        <v>0.474593</v>
       </c>
       <c r="I5">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254827</v>
       </c>
       <c r="J5">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254826</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1869373333333333</v>
+        <v>0.200134</v>
       </c>
       <c r="N5">
-        <v>0.560812</v>
+        <v>0.600402</v>
       </c>
       <c r="O5">
-        <v>0.03975887129191588</v>
+        <v>0.03506736924993285</v>
       </c>
       <c r="P5">
-        <v>0.03975887129191589</v>
+        <v>0.03506736924993285</v>
       </c>
       <c r="Q5">
-        <v>0.01068596109777778</v>
+        <v>0.03166073182066667</v>
       </c>
       <c r="R5">
-        <v>0.09617364988</v>
+        <v>0.284946586386</v>
       </c>
       <c r="S5">
-        <v>0.002493696071987085</v>
+        <v>0.004911767354506364</v>
       </c>
       <c r="T5">
-        <v>0.002493696071987085</v>
+        <v>0.004911767354506363</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>2.381805</v>
       </c>
       <c r="I6">
-        <v>0.871117777304756</v>
+        <v>0.7029419733214338</v>
       </c>
       <c r="J6">
-        <v>0.8711177773047561</v>
+        <v>0.7029419733214337</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5139126666666667</v>
+        <v>0.949891</v>
       </c>
       <c r="N6">
-        <v>1.541738</v>
+        <v>2.849673</v>
       </c>
       <c r="O6">
-        <v>0.1093018029354861</v>
+        <v>0.1664393778377885</v>
       </c>
       <c r="P6">
-        <v>0.1093018029354861</v>
+        <v>0.1664393778377885</v>
       </c>
       <c r="Q6">
-        <v>0.40801325301</v>
+        <v>0.754151711085</v>
       </c>
       <c r="R6">
-        <v>3.67211927709</v>
+        <v>6.787365399765</v>
       </c>
       <c r="S6">
-        <v>0.09521474362856309</v>
+        <v>0.1169972246956868</v>
       </c>
       <c r="T6">
-        <v>0.09521474362856312</v>
+        <v>0.1169972246956868</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2.381805</v>
       </c>
       <c r="I7">
-        <v>0.871117777304756</v>
+        <v>0.7029419733214338</v>
       </c>
       <c r="J7">
-        <v>0.8711177773047561</v>
+        <v>0.7029419733214337</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>8.504659</v>
       </c>
       <c r="O7">
-        <v>0.6029393853245545</v>
+        <v>0.4967272219242518</v>
       </c>
       <c r="P7">
-        <v>0.6029393853245546</v>
+        <v>0.4967272219242519</v>
       </c>
       <c r="Q7">
         <v>2.250715481055</v>
@@ -883,10 +883,10 @@
         <v>20.256439329495</v>
       </c>
       <c r="S7">
-        <v>0.5252312171934217</v>
+        <v>0.3491704135819074</v>
       </c>
       <c r="T7">
-        <v>0.5252312171934219</v>
+        <v>0.3491704135819074</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2.381805</v>
       </c>
       <c r="I8">
-        <v>0.871117777304756</v>
+        <v>0.7029419733214338</v>
       </c>
       <c r="J8">
-        <v>0.8711177773047561</v>
+        <v>0.7029419733214337</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.166040333333333</v>
+        <v>1.722217666666667</v>
       </c>
       <c r="N8">
-        <v>3.498121</v>
+        <v>5.166653</v>
       </c>
       <c r="O8">
-        <v>0.2479999404480434</v>
+        <v>0.3017660309880268</v>
       </c>
       <c r="P8">
-        <v>0.2479999404480434</v>
+        <v>0.3017660309880269</v>
       </c>
       <c r="Q8">
-        <v>0.9257602320449999</v>
+        <v>1.367328883185</v>
       </c>
       <c r="R8">
-        <v>8.331842088405001</v>
+        <v>12.305959948665</v>
       </c>
       <c r="S8">
-        <v>0.2160371568948114</v>
+        <v>0.2121240093041006</v>
       </c>
       <c r="T8">
-        <v>0.2160371568948115</v>
+        <v>0.2121240093041006</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>2.381805</v>
       </c>
       <c r="I9">
-        <v>0.871117777304756</v>
+        <v>0.7029419733214338</v>
       </c>
       <c r="J9">
-        <v>0.8711177773047561</v>
+        <v>0.7029419733214337</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1869373333333333</v>
+        <v>0.200134</v>
       </c>
       <c r="N9">
-        <v>0.560812</v>
+        <v>0.600402</v>
       </c>
       <c r="O9">
-        <v>0.03975887129191588</v>
+        <v>0.03506736924993285</v>
       </c>
       <c r="P9">
-        <v>0.03975887129191589</v>
+        <v>0.03506736924993285</v>
       </c>
       <c r="Q9">
-        <v>0.14841609174</v>
+        <v>0.15889338729</v>
       </c>
       <c r="R9">
-        <v>1.33574482566</v>
+        <v>1.43004048561</v>
       </c>
       <c r="S9">
-        <v>0.03463465958795964</v>
+        <v>0.02465032573973916</v>
       </c>
       <c r="T9">
-        <v>0.03463465958795964</v>
+        <v>0.02465032573973916</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05636566666666667</v>
+        <v>0.1199896666666667</v>
       </c>
       <c r="H10">
-        <v>0.169097</v>
+        <v>0.359969</v>
       </c>
       <c r="I10">
-        <v>0.06184528237572023</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="J10">
-        <v>0.06184528237572024</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5139126666666667</v>
+        <v>0.949891</v>
       </c>
       <c r="N10">
-        <v>1.541738</v>
+        <v>2.849673</v>
       </c>
       <c r="O10">
-        <v>0.1093018029354861</v>
+        <v>0.1664393778377885</v>
       </c>
       <c r="P10">
-        <v>0.1093018029354861</v>
+        <v>0.1664393778377885</v>
       </c>
       <c r="Q10">
-        <v>0.02896703006511111</v>
+        <v>0.1139771044596667</v>
       </c>
       <c r="R10">
-        <v>0.260703270586</v>
+        <v>1.025793940137</v>
       </c>
       <c r="S10">
-        <v>0.006759800866720463</v>
+        <v>0.01768212510112359</v>
       </c>
       <c r="T10">
-        <v>0.006759800866720465</v>
+        <v>0.01768212510112359</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.05636566666666667</v>
+        <v>0.1199896666666667</v>
       </c>
       <c r="H11">
-        <v>0.169097</v>
+        <v>0.359969</v>
       </c>
       <c r="I11">
-        <v>0.06184528237572023</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="J11">
-        <v>0.06184528237572024</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>8.504659</v>
       </c>
       <c r="O11">
-        <v>0.6029393853245545</v>
+        <v>0.4967272219242518</v>
       </c>
       <c r="P11">
-        <v>0.6029393853245546</v>
+        <v>0.4967272219242519</v>
       </c>
       <c r="Q11">
-        <v>0.1597902581025556</v>
+        <v>0.3401570661745555</v>
       </c>
       <c r="R11">
-        <v>1.438112322923</v>
+        <v>3.061413595571</v>
       </c>
       <c r="S11">
-        <v>0.03728895654084026</v>
+        <v>0.05277112299565481</v>
       </c>
       <c r="T11">
-        <v>0.03728895654084027</v>
+        <v>0.05277112299565481</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05636566666666667</v>
+        <v>0.1199896666666667</v>
       </c>
       <c r="H12">
-        <v>0.169097</v>
+        <v>0.359969</v>
       </c>
       <c r="I12">
-        <v>0.06184528237572023</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="J12">
-        <v>0.06184528237572024</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.166040333333333</v>
+        <v>1.722217666666667</v>
       </c>
       <c r="N12">
-        <v>3.498121</v>
+        <v>5.166653</v>
       </c>
       <c r="O12">
-        <v>0.2479999404480434</v>
+        <v>0.3017660309880268</v>
       </c>
       <c r="P12">
-        <v>0.2479999404480434</v>
+        <v>0.3017660309880269</v>
       </c>
       <c r="Q12">
-        <v>0.06572464074855555</v>
+        <v>0.2066483237507778</v>
       </c>
       <c r="R12">
-        <v>0.5915217667370001</v>
+        <v>1.859834913757</v>
       </c>
       <c r="S12">
-        <v>0.01533762634617104</v>
+        <v>0.03205890805720358</v>
       </c>
       <c r="T12">
-        <v>0.01533762634617105</v>
+        <v>0.03205890805720357</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05636566666666667</v>
+        <v>0.1199896666666667</v>
       </c>
       <c r="H13">
-        <v>0.169097</v>
+        <v>0.359969</v>
       </c>
       <c r="I13">
-        <v>0.06184528237572023</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="J13">
-        <v>0.06184528237572024</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1869373333333333</v>
+        <v>0.200134</v>
       </c>
       <c r="N13">
-        <v>0.560812</v>
+        <v>0.600402</v>
       </c>
       <c r="O13">
-        <v>0.03975887129191588</v>
+        <v>0.03506736924993285</v>
       </c>
       <c r="P13">
-        <v>0.03975887129191589</v>
+        <v>0.03506736924993285</v>
       </c>
       <c r="Q13">
-        <v>0.01053684741822222</v>
+        <v>0.02401401194866667</v>
       </c>
       <c r="R13">
-        <v>0.09483162676399999</v>
+        <v>0.216126107538</v>
       </c>
       <c r="S13">
-        <v>0.002458898621988454</v>
+        <v>0.003725474212292008</v>
       </c>
       <c r="T13">
-        <v>0.002458898621988455</v>
+        <v>0.003725474212292007</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.003934</v>
+        <v>0.05732366666666666</v>
       </c>
       <c r="H14">
-        <v>0.011802</v>
+        <v>0.171971</v>
       </c>
       <c r="I14">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680971</v>
       </c>
       <c r="J14">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680969</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5139126666666667</v>
+        <v>0.949891</v>
       </c>
       <c r="N14">
-        <v>1.541738</v>
+        <v>2.849673</v>
       </c>
       <c r="O14">
-        <v>0.1093018029354861</v>
+        <v>0.1664393778377885</v>
       </c>
       <c r="P14">
-        <v>0.1093018029354861</v>
+        <v>0.1664393778377885</v>
       </c>
       <c r="Q14">
-        <v>0.002021732430666667</v>
+        <v>0.05445123505366666</v>
       </c>
       <c r="R14">
-        <v>0.018195591876</v>
+        <v>0.490061115483</v>
       </c>
       <c r="S14">
-        <v>0.0004717952999109086</v>
+        <v>0.008447429461329517</v>
       </c>
       <c r="T14">
-        <v>0.0004717952999109087</v>
+        <v>0.008447429461329514</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.003934</v>
+        <v>0.05732366666666666</v>
       </c>
       <c r="H15">
-        <v>0.011802</v>
+        <v>0.171971</v>
       </c>
       <c r="I15">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680971</v>
       </c>
       <c r="J15">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680969</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>8.504659</v>
       </c>
       <c r="O15">
-        <v>0.6029393853245545</v>
+        <v>0.4967272219242518</v>
       </c>
       <c r="P15">
-        <v>0.6029393853245546</v>
+        <v>0.4967272219242519</v>
       </c>
       <c r="Q15">
-        <v>0.01115244283533333</v>
+        <v>0.1625060792098889</v>
       </c>
       <c r="R15">
-        <v>0.100371985518</v>
+        <v>1.462554712889</v>
       </c>
       <c r="S15">
-        <v>0.0026025551316404</v>
+        <v>0.02521078979769301</v>
       </c>
       <c r="T15">
-        <v>0.002602555131640401</v>
+        <v>0.025210789797693</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.003934</v>
+        <v>0.05732366666666666</v>
       </c>
       <c r="H16">
-        <v>0.011802</v>
+        <v>0.171971</v>
       </c>
       <c r="I16">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680971</v>
       </c>
       <c r="J16">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680969</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.166040333333333</v>
+        <v>1.722217666666667</v>
       </c>
       <c r="N16">
-        <v>3.498121</v>
+        <v>5.166653</v>
       </c>
       <c r="O16">
-        <v>0.2479999404480434</v>
+        <v>0.3017660309880268</v>
       </c>
       <c r="P16">
-        <v>0.2479999404480434</v>
+        <v>0.3017660309880269</v>
       </c>
       <c r="Q16">
-        <v>0.004587202671333333</v>
+        <v>0.09872383145144444</v>
       </c>
       <c r="R16">
-        <v>0.04128482404200001</v>
+        <v>0.888514483063</v>
       </c>
       <c r="S16">
-        <v>0.00107047828250951</v>
+        <v>0.01531577018439187</v>
       </c>
       <c r="T16">
-        <v>0.001070478282509511</v>
+        <v>0.01531577018439187</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.003934</v>
+        <v>0.05732366666666666</v>
       </c>
       <c r="H17">
-        <v>0.011802</v>
+        <v>0.171971</v>
       </c>
       <c r="I17">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680971</v>
       </c>
       <c r="J17">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680969</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1869373333333333</v>
+        <v>0.200134</v>
       </c>
       <c r="N17">
-        <v>0.560812</v>
+        <v>0.600402</v>
       </c>
       <c r="O17">
-        <v>0.03975887129191588</v>
+        <v>0.03506736924993285</v>
       </c>
       <c r="P17">
-        <v>0.03975887129191589</v>
+        <v>0.03506736924993285</v>
       </c>
       <c r="Q17">
-        <v>0.0007354114693333333</v>
+        <v>0.01147241470466667</v>
       </c>
       <c r="R17">
-        <v>0.006618703224</v>
+        <v>0.103251732342</v>
       </c>
       <c r="S17">
-        <v>0.0001716170099807077</v>
+        <v>0.001779801943395317</v>
       </c>
       <c r="T17">
-        <v>0.0001716170099807078</v>
+        <v>0.001779801943395317</v>
       </c>
     </row>
   </sheetData>
